--- a/natmiOut/OldD0/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.46626804870457</v>
+        <v>5.652167666666667</v>
       </c>
       <c r="H2">
-        <v>5.46626804870457</v>
+        <v>16.956503</v>
       </c>
       <c r="I2">
-        <v>0.181666329901699</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="J2">
-        <v>0.181666329901699</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.62911185180581</v>
+        <v>3.652835333333333</v>
       </c>
       <c r="N2">
-        <v>1.62911185180581</v>
+        <v>10.958506</v>
       </c>
       <c r="O2">
-        <v>0.0724036396470914</v>
+        <v>0.1451640905049821</v>
       </c>
       <c r="P2">
-        <v>0.0724036396470914</v>
+        <v>0.1451640905049821</v>
       </c>
       <c r="Q2">
-        <v>8.905162063292034</v>
+        <v>20.64643776272423</v>
       </c>
       <c r="R2">
-        <v>8.905162063292034</v>
+        <v>185.817939864518</v>
       </c>
       <c r="S2">
-        <v>0.01315330348621224</v>
+        <v>0.02700529768984507</v>
       </c>
       <c r="T2">
-        <v>0.01315330348621224</v>
+        <v>0.02700529768984507</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.46626804870457</v>
+        <v>5.652167666666667</v>
       </c>
       <c r="H3">
-        <v>5.46626804870457</v>
+        <v>16.956503</v>
       </c>
       <c r="I3">
-        <v>0.181666329901699</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="J3">
-        <v>0.181666329901699</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.46597226103132</v>
+        <v>2.483777</v>
       </c>
       <c r="N3">
-        <v>2.46597226103132</v>
+        <v>7.451331</v>
       </c>
       <c r="O3">
-        <v>0.1095967516101021</v>
+        <v>0.09870557972652284</v>
       </c>
       <c r="P3">
-        <v>0.1095967516101021</v>
+        <v>0.09870557972652286</v>
       </c>
       <c r="Q3">
-        <v>13.47966537946727</v>
+        <v>14.03872405061033</v>
       </c>
       <c r="R3">
-        <v>13.47966537946727</v>
+        <v>126.348516455493</v>
       </c>
       <c r="S3">
-        <v>0.01991003963415537</v>
+        <v>0.0183624858936584</v>
       </c>
       <c r="T3">
-        <v>0.01991003963415537</v>
+        <v>0.01836248589365841</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.46626804870457</v>
+        <v>5.652167666666667</v>
       </c>
       <c r="H4">
-        <v>5.46626804870457</v>
+        <v>16.956503</v>
       </c>
       <c r="I4">
-        <v>0.181666329901699</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="J4">
-        <v>0.181666329901699</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.4053296750111</v>
+        <v>19.026879</v>
       </c>
       <c r="N4">
-        <v>18.4053296750111</v>
+        <v>57.080637</v>
       </c>
       <c r="O4">
-        <v>0.8179996087428064</v>
+        <v>0.7561303297684949</v>
       </c>
       <c r="P4">
-        <v>0.8179996087428064</v>
+        <v>0.756130329768495</v>
       </c>
       <c r="Q4">
-        <v>100.6084655283872</v>
+        <v>107.543110281379</v>
       </c>
       <c r="R4">
-        <v>100.6084655283872</v>
+        <v>967.887992532411</v>
       </c>
       <c r="S4">
-        <v>0.1486029867813314</v>
+        <v>0.1406651230113836</v>
       </c>
       <c r="T4">
-        <v>0.1486029867813314</v>
+        <v>0.1406651230113836</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.3597668135241</v>
+        <v>16.407289</v>
       </c>
       <c r="H5">
-        <v>16.3597668135241</v>
+        <v>49.221867</v>
       </c>
       <c r="I5">
-        <v>0.5437016202973917</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="J5">
-        <v>0.5437016202973917</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.62911185180581</v>
+        <v>3.652835333333333</v>
       </c>
       <c r="N5">
-        <v>1.62911185180581</v>
+        <v>10.958506</v>
       </c>
       <c r="O5">
-        <v>0.0724036396470914</v>
+        <v>0.1451640905049821</v>
       </c>
       <c r="P5">
-        <v>0.0724036396470914</v>
+        <v>0.1451640905049821</v>
       </c>
       <c r="Q5">
-        <v>26.65189000869148</v>
+        <v>59.93312498341135</v>
       </c>
       <c r="R5">
-        <v>26.65189000869148</v>
+        <v>539.3981248507021</v>
       </c>
       <c r="S5">
-        <v>0.03936597619155206</v>
+        <v>0.07839182236956296</v>
       </c>
       <c r="T5">
-        <v>0.03936597619155206</v>
+        <v>0.07839182236956296</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.3597668135241</v>
+        <v>16.407289</v>
       </c>
       <c r="H6">
-        <v>16.3597668135241</v>
+        <v>49.221867</v>
       </c>
       <c r="I6">
-        <v>0.5437016202973917</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="J6">
-        <v>0.5437016202973917</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.46597226103132</v>
+        <v>2.483777</v>
       </c>
       <c r="N6">
-        <v>2.46597226103132</v>
+        <v>7.451331</v>
       </c>
       <c r="O6">
-        <v>0.1095967516101021</v>
+        <v>0.09870557972652284</v>
       </c>
       <c r="P6">
-        <v>0.1095967516101021</v>
+        <v>0.09870557972652286</v>
       </c>
       <c r="Q6">
-        <v>40.34273115909118</v>
+        <v>40.752047050553</v>
       </c>
       <c r="R6">
-        <v>40.34273115909118</v>
+        <v>366.768423454977</v>
       </c>
       <c r="S6">
-        <v>0.0595879314297433</v>
+        <v>0.05330319809733351</v>
       </c>
       <c r="T6">
-        <v>0.0595879314297433</v>
+        <v>0.05330319809733352</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.3597668135241</v>
+        <v>16.407289</v>
       </c>
       <c r="H7">
-        <v>16.3597668135241</v>
+        <v>49.221867</v>
       </c>
       <c r="I7">
-        <v>0.5437016202973917</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="J7">
-        <v>0.5437016202973917</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.4053296750111</v>
+        <v>19.026879</v>
       </c>
       <c r="N7">
-        <v>18.4053296750111</v>
+        <v>57.080637</v>
       </c>
       <c r="O7">
-        <v>0.8179996087428064</v>
+        <v>0.7561303297684949</v>
       </c>
       <c r="P7">
-        <v>0.8179996087428064</v>
+        <v>0.756130329768495</v>
       </c>
       <c r="Q7">
-        <v>301.1069016092169</v>
+        <v>312.179502521031</v>
       </c>
       <c r="R7">
-        <v>301.1069016092169</v>
+        <v>2809.615522689279</v>
       </c>
       <c r="S7">
-        <v>0.4447477126760963</v>
+        <v>0.4083271165289778</v>
       </c>
       <c r="T7">
-        <v>0.4447477126760963</v>
+        <v>0.4083271165289779</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.263569808391409</v>
+        <v>8.323166333333333</v>
       </c>
       <c r="H8">
-        <v>8.263569808391409</v>
+        <v>24.969499</v>
       </c>
       <c r="I8">
-        <v>0.2746320498009094</v>
+        <v>0.2739449564092387</v>
       </c>
       <c r="J8">
-        <v>0.2746320498009094</v>
+        <v>0.2739449564092387</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.62911185180581</v>
+        <v>3.652835333333333</v>
       </c>
       <c r="N8">
-        <v>1.62911185180581</v>
+        <v>10.958506</v>
       </c>
       <c r="O8">
-        <v>0.0724036396470914</v>
+        <v>0.1451640905049821</v>
       </c>
       <c r="P8">
-        <v>0.0724036396470914</v>
+        <v>0.1451640905049821</v>
       </c>
       <c r="Q8">
-        <v>13.46227951307511</v>
+        <v>30.40315606761044</v>
       </c>
       <c r="R8">
-        <v>13.46227951307511</v>
+        <v>273.628404608494</v>
       </c>
       <c r="S8">
-        <v>0.0198843599693271</v>
+        <v>0.0397669704455741</v>
       </c>
       <c r="T8">
-        <v>0.0198843599693271</v>
+        <v>0.03976697044557412</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.263569808391409</v>
+        <v>8.323166333333333</v>
       </c>
       <c r="H9">
-        <v>8.263569808391409</v>
+        <v>24.969499</v>
       </c>
       <c r="I9">
-        <v>0.2746320498009094</v>
+        <v>0.2739449564092387</v>
       </c>
       <c r="J9">
-        <v>0.2746320498009094</v>
+        <v>0.2739449564092387</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.46597226103132</v>
+        <v>2.483777</v>
       </c>
       <c r="N9">
-        <v>2.46597226103132</v>
+        <v>7.451331</v>
       </c>
       <c r="O9">
-        <v>0.1095967516101021</v>
+        <v>0.09870557972652284</v>
       </c>
       <c r="P9">
-        <v>0.1095967516101021</v>
+        <v>0.09870557972652286</v>
       </c>
       <c r="Q9">
-        <v>20.37773392458912</v>
+        <v>20.67288910590766</v>
       </c>
       <c r="R9">
-        <v>20.37773392458912</v>
+        <v>186.056001953169</v>
       </c>
       <c r="S9">
-        <v>0.03009878054620347</v>
+        <v>0.02703989573553093</v>
       </c>
       <c r="T9">
-        <v>0.03009878054620347</v>
+        <v>0.02703989573553094</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.263569808391409</v>
+        <v>8.323166333333333</v>
       </c>
       <c r="H10">
-        <v>8.263569808391409</v>
+        <v>24.969499</v>
       </c>
       <c r="I10">
-        <v>0.2746320498009094</v>
+        <v>0.2739449564092387</v>
       </c>
       <c r="J10">
-        <v>0.2746320498009094</v>
+        <v>0.2739449564092387</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.4053296750111</v>
+        <v>19.026879</v>
       </c>
       <c r="N10">
-        <v>18.4053296750111</v>
+        <v>57.080637</v>
       </c>
       <c r="O10">
-        <v>0.8179996087428064</v>
+        <v>0.7561303297684949</v>
       </c>
       <c r="P10">
-        <v>0.8179996087428064</v>
+        <v>0.756130329768495</v>
       </c>
       <c r="Q10">
-        <v>152.0937266159122</v>
+        <v>158.363878721207</v>
       </c>
       <c r="R10">
-        <v>152.0937266159122</v>
+        <v>1425.274908490863</v>
       </c>
       <c r="S10">
-        <v>0.2246489092853788</v>
+        <v>0.2071380902281336</v>
       </c>
       <c r="T10">
-        <v>0.2246489092853788</v>
+        <v>0.2071380902281337</v>
       </c>
     </row>
   </sheetData>
